--- a/biology/Botanique/Liste_des_plus_grands_genres_d'Angiospermes/Liste_des_plus_grands_genres_d'Angiospermes.xlsx
+++ b/biology/Botanique/Liste_des_plus_grands_genres_d'Angiospermes/Liste_des_plus_grands_genres_d'Angiospermes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_plus_grands_genres_d%27Angiospermes</t>
+          <t>Liste_des_plus_grands_genres_d'Angiospermes</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des plus grands genres d'Angiospermes recense 57 genres de plantes à fleurs qui contiennent au moins 500 espèces décrites. Le plus grand de ces genres est Astragalus (famille des Fabaceae), qui rassemble plus de 3 000 espèces.
-La taille des genres botaniques est très variable, depuis les genres monotypiques, qui ne contiennent qu'une seule espèce, jusqu'à ceux qui en contiennent plusieurs milliers, et cette disparité est apparue très tôt dans l'histoire de la classification des plantes. Le plus grand genre créé par Linné  dans son  Species plantarum était Euphorbia, avec 56 espèces. Linné pensait qu'aucun genre ne devrait contenir plus de 100 espèces[1]
-Une partie de la disparité de taille des genres botaniques est attribuable à des facteurs historiques. Selon une hypothèse publiée par le botaniste britannique Stuart Max Walters en 1961, la taille des genres de plantes est liée à l'âge, non pas du taxon lui-même, mais du concept de taxon dans l'esprit des taxinomistes[2].
-Les espèces de plantes européennes, sur lesquelles reposait l'essentiel de la taxinomie initiale, ont été réparties en genres relativement petits, alors que celles des tropiques ont été regroupées en genres beaucoup plus grands et plus hétérogènes[3].
-De même, les plantes partageant des propriétés médicinales communes, telles que les nombreuses espèces d’Euphorbia, ont été réunies en un seul genre, tandis que les plantes aux usages divers, telles que les  graminées, ont été réparties dans plusieurs genres[2]. Lorsqu'il existait de nombreux noms classiques pour des groupes de plantes, comme chez les  Apiaceae / Umbelliferae ou  les  Brassicaceae / Cruciferae, de petits genres ont été définis, alors que dans les groupes non subdivisés par les auteurs classiques les genres sont restés plus grands, comme c'est le cas de Carex[2],[3].
-Un certain nombre de facteurs biologiques influencent également le nombre d'espèces. Par exemple, l'apparition de l'apomixie permet la reconnaissance d'un grand nombre d'agamo-espèces, et de tels taxons ont contribué à renforcer des genres tels que Ranunculus et Potentilla[1].
-L'introduction de taxons infragénériques (tels que les sous-genres, sections et séries) au XIXe siècle par des botanistes, comme Augustin Pyrame de Candolle, a permis la conservation de grands genres qui autrement auraient été difficiles à manier. Le botaniste anglais E. J. H. Corner a estimé que l'étude de grands genres permettrait de mieux comprendre la biologie évolutive. Il a concentré ses efforts sur les grands genres tropicaux tels que Ficus[1].
+La taille des genres botaniques est très variable, depuis les genres monotypiques, qui ne contiennent qu'une seule espèce, jusqu'à ceux qui en contiennent plusieurs milliers, et cette disparité est apparue très tôt dans l'histoire de la classification des plantes. Le plus grand genre créé par Linné  dans son  Species plantarum était Euphorbia, avec 56 espèces. Linné pensait qu'aucun genre ne devrait contenir plus de 100 espèces
+Une partie de la disparité de taille des genres botaniques est attribuable à des facteurs historiques. Selon une hypothèse publiée par le botaniste britannique Stuart Max Walters en 1961, la taille des genres de plantes est liée à l'âge, non pas du taxon lui-même, mais du concept de taxon dans l'esprit des taxinomistes.
+Les espèces de plantes européennes, sur lesquelles reposait l'essentiel de la taxinomie initiale, ont été réparties en genres relativement petits, alors que celles des tropiques ont été regroupées en genres beaucoup plus grands et plus hétérogènes.
+De même, les plantes partageant des propriétés médicinales communes, telles que les nombreuses espèces d’Euphorbia, ont été réunies en un seul genre, tandis que les plantes aux usages divers, telles que les  graminées, ont été réparties dans plusieurs genres. Lorsqu'il existait de nombreux noms classiques pour des groupes de plantes, comme chez les  Apiaceae / Umbelliferae ou  les  Brassicaceae / Cruciferae, de petits genres ont été définis, alors que dans les groupes non subdivisés par les auteurs classiques les genres sont restés plus grands, comme c'est le cas de Carex,.
+Un certain nombre de facteurs biologiques influencent également le nombre d'espèces. Par exemple, l'apparition de l'apomixie permet la reconnaissance d'un grand nombre d'agamo-espèces, et de tels taxons ont contribué à renforcer des genres tels que Ranunculus et Potentilla.
+L'introduction de taxons infragénériques (tels que les sous-genres, sections et séries) au XIXe siècle par des botanistes, comme Augustin Pyrame de Candolle, a permis la conservation de grands genres qui autrement auraient été difficiles à manier. Le botaniste anglais E. J. H. Corner a estimé que l'étude de grands genres permettrait de mieux comprendre la biologie évolutive. Il a concentré ses efforts sur les grands genres tropicaux tels que Ficus.
 </t>
         </is>
       </c>
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_plus_grands_genres_d%27Angiospermes</t>
+          <t>Liste_des_plus_grands_genres_d'Angiospermes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,11 +529,13 @@
           <t>Les plus grands genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une analyse effectuée en 2004 par le taxinomiste botanique américain David Frodin, 57 genres de plantes à fleurs contiennent au moins 500 espèces[1].
-Le nombre réel d’espèces n'est pas connu avec précision, car de nombreux genres n’ont pas fait l’objet de monographies récentes[3].
-Par exemple, l'estimation du nombre d'espèces comprises dans le genre d'orchidée Pleurothallis varie entre 1120 et 2500. parmi les genres d’autres groupes de plantes vasculaires, qui ont un nombre d’espèces équivalent, figurent Selaginella, Asplenium et Cyathea[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une analyse effectuée en 2004 par le taxinomiste botanique américain David Frodin, 57 genres de plantes à fleurs contiennent au moins 500 espèces.
+Le nombre réel d’espèces n'est pas connu avec précision, car de nombreux genres n’ont pas fait l’objet de monographies récentes.
+Par exemple, l'estimation du nombre d'espèces comprises dans le genre d'orchidée Pleurothallis varie entre 1120 et 2500. parmi les genres d’autres groupes de plantes vasculaires, qui ont un nombre d’espèces équivalent, figurent Selaginella, Asplenium et Cyathea.
 </t>
         </is>
       </c>
